--- a/biology/Histoire de la zoologie et de la botanique/Allen_Lowrie/Allen_Lowrie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Allen_Lowrie/Allen_Lowrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allen Lowrie, né le 10 octobre 1948 et mort le 30 août 2021[1], est un botaniste australien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allen Lowrie, né le 10 octobre 1948 et mort le 30 août 2021, est un botaniste australien.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allen Lowrie, à l'origine un homme d'affaires et chercheur, s'intéressa aux plantes carnivores d’Australie-Occidentale dans les années soixante et y travailla comme amateur. Comme le temps passait, son passe-temps est devenu sa profession et Lowrie a découvert et décrit de nombreuses espèces de plantes, (en particulier dans les genres Drosera, Byblis et Utricularia), partiellement avec le Dr Marchant Neville. De 1986 à 1998, il a publié Carnivorous Plants of Australia en trois volumes, un quatrième est en préparation. Le deuxième axe de son travail est le genre Stylidium.
 </t>
@@ -542,7 +556,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Carnivorous Plants of Australia. Tome 1, University of Western Australia Press, 1988.  (ISBN 085564253X)
 Carnivorous Plants of Australia. Tome 2, University of Western Australia Press, 1990.  (ISBN 0855642998)
@@ -574,7 +590,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Allen Lowrie » (voir la liste des auteurs).</t>
         </is>
